--- a/Plugins/Belvar_V7_40_1/Resource/точки поверки В7-40_1.xlsx
+++ b/Plugins/Belvar_V7_40_1/Resource/точки поверки В7-40_1.xlsx
@@ -58,8 +58,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -186,8 +186,8 @@
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -202,19 +202,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +520,7 @@
   <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +699,8 @@
         <v>0.25</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ref="B17:B21" si="2">A17*$B$3</f>
-        <v>50</v>
+        <f t="shared" ref="B17:B20" si="2">A17*$B$13</f>
+        <v>0.5</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -736,7 +736,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>1.9</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -942,7 +942,7 @@
         <v>0.5</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" ref="B40:B41" si="5">A40*$B$36</f>
+        <f t="shared" ref="B40" si="5">A40*$B$36</f>
         <v>1000</v>
       </c>
       <c r="C40" t="s">
@@ -1292,11 +1292,11 @@
         <v>0.4</v>
       </c>
       <c r="AA7" s="25">
-        <f t="shared" ref="AA7:AA10" si="8">Z7*AA$3</f>
+        <f t="shared" ref="AA7" si="8">Z7*AA$3</f>
         <v>800</v>
       </c>
       <c r="AB7" s="14" t="str">
-        <f t="shared" ref="AB7:AB10" si="9">AB$3</f>
+        <f t="shared" ref="AB7" si="9">AB$3</f>
         <v>NA</v>
       </c>
       <c r="AC7" s="14">
@@ -1773,7 +1773,7 @@
         <v>800</v>
       </c>
       <c r="AB14" s="14" t="str">
-        <f t="shared" ref="AB14:AB17" si="14">AB$3</f>
+        <f t="shared" ref="AB14" si="14">AB$3</f>
         <v>NA</v>
       </c>
       <c r="AC14" s="14">
@@ -2226,7 +2226,7 @@
         <v>800</v>
       </c>
       <c r="AB21" s="14" t="str">
-        <f t="shared" ref="AB21:AB24" si="19">AB$3</f>
+        <f t="shared" ref="AB21" si="19">AB$3</f>
         <v>NA</v>
       </c>
       <c r="AC21" s="14">
@@ -2679,7 +2679,7 @@
         <v>800</v>
       </c>
       <c r="AB28" s="14" t="str">
-        <f t="shared" ref="AB28:AB31" si="24">AB$3</f>
+        <f t="shared" ref="AB28" si="24">AB$3</f>
         <v>NA</v>
       </c>
       <c r="AC28" s="14">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="14" t="str">
-        <f t="shared" ref="C19:C23" si="1">C18</f>
+        <f t="shared" ref="C19:C21" si="1">C18</f>
         <v>k</v>
       </c>
     </row>
